--- a/biology/Botanique/Vappodes_phalaenopsis/Vappodes_phalaenopsis.xlsx
+++ b/biology/Botanique/Vappodes_phalaenopsis/Vappodes_phalaenopsis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve"> Vappodes phalaenopsis ou Dendrobium bigibbum est une espèce de la famille des Orchidaceae originaire d'Australie (nord du Queensland), de Nouvelle-Guinée, de Timor et des Moluques. Elle est l'emblème floral du Queensland depuis le 19 novembre 1959.
 </t>
@@ -511,7 +523,9 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Généralement dénommée Dendrobium phalaenopsis, cette espèce change plusieurs fois de nom dans la taxinomie des Orchidaceae. En 2002, l'un des spécialistes de cette espèce, Mark Alwin Clements, propose de la placer avec d'autres espèces, dans un nouveau genre : Vappodes.
 </t>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La plante mesure de 50 à 60 centimètres de haut; Les feuilles vert foncé lancéolées, rigides et charnues font jusqu'à 20 cm de long. L'inflorescence pendante peut atteindre 50 cm de longueur. les fleurs ont un diamètre de 6 à 9 centimètres et sont généralement pourpre foncé ou plus claires[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plante mesure de 50 à 60 centimètres de haut; Les feuilles vert foncé lancéolées, rigides et charnues font jusqu'à 20 cm de long. L'inflorescence pendante peut atteindre 50 cm de longueur. les fleurs ont un diamètre de 6 à 9 centimètres et sont généralement pourpre foncé ou plus claires.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans la nature, la plante fleurit en saison sèche, de mars à juillet. Cultivée, elle fleurit toute l'année.
 Les hybrides obtenus en culture sont de couleur variable : blanc, violet, pourpre, etc.
